--- a/bulletin/macroeconomics/static/macroeconomics/tables/average_nominal_salary_by_region_in_thousand_tenge.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/average_nominal_salary_by_region_in_thousand_tenge.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,11 +492,6 @@
           <t>1 кв</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2 кв</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,10 +527,7 @@
         <v>338.7</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>365.5</v>
+        <v>345.3</v>
       </c>
     </row>
     <row r="4">
@@ -562,9 +554,6 @@
       <c r="K4" t="n">
         <v>285.1</v>
       </c>
-      <c r="L4" t="n">
-        <v>303</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,9 +591,6 @@
       <c r="K5" t="n">
         <v>277.5</v>
       </c>
-      <c r="L5" t="n">
-        <v>298</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -642,9 +628,6 @@
       <c r="K6" t="n">
         <v>301.3</v>
       </c>
-      <c r="L6" t="n">
-        <v>325</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -680,10 +663,7 @@
         <v>271.5</v>
       </c>
       <c r="K7" t="n">
-        <v>279.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>314.1</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="8">
@@ -722,9 +702,6 @@
       <c r="K8" t="n">
         <v>620.4</v>
       </c>
-      <c r="L8" t="n">
-        <v>573.4</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -762,9 +739,6 @@
       <c r="K9" t="n">
         <v>296.1</v>
       </c>
-      <c r="L9" t="n">
-        <v>318</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -801,9 +775,6 @@
       </c>
       <c r="K10" t="n">
         <v>258.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>291.9</v>
       </c>
     </row>
     <row r="11">
@@ -830,9 +801,6 @@
       <c r="K11" t="n">
         <v>253.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>274.2</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -870,9 +838,6 @@
       <c r="K12" t="n">
         <v>317.2</v>
       </c>
-      <c r="L12" t="n">
-        <v>343.1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -910,9 +875,6 @@
       <c r="K13" t="n">
         <v>276.4</v>
       </c>
-      <c r="L13" t="n">
-        <v>300.2</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -950,9 +912,6 @@
       <c r="K14" t="n">
         <v>297.2</v>
       </c>
-      <c r="L14" t="n">
-        <v>330.6</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -990,9 +949,6 @@
       <c r="K15" t="n">
         <v>512.3</v>
       </c>
-      <c r="L15" t="n">
-        <v>531.2</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1030,9 +986,6 @@
       <c r="K16" t="n">
         <v>306</v>
       </c>
-      <c r="L16" t="n">
-        <v>325.1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1070,9 +1023,6 @@
       <c r="K17" t="n">
         <v>242.8</v>
       </c>
-      <c r="L17" t="n">
-        <v>273.8</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1109,9 +1059,6 @@
       </c>
       <c r="K18" t="n">
         <v>263.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>299</v>
       </c>
     </row>
     <row r="19">
@@ -1138,9 +1085,6 @@
       <c r="K19" t="n">
         <v>452.2</v>
       </c>
-      <c r="L19" t="n">
-        <v>474.4</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1178,9 +1122,6 @@
       <c r="K20" t="n">
         <v>331.8</v>
       </c>
-      <c r="L20" t="n">
-        <v>336</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1218,9 +1159,6 @@
       <c r="K21" t="n">
         <v>448.5</v>
       </c>
-      <c r="L21" t="n">
-        <v>467.1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1258,9 +1196,6 @@
       <c r="K22" t="n">
         <v>396.1</v>
       </c>
-      <c r="L22" t="n">
-        <v>420.4</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1297,16 +1232,13 @@
       </c>
       <c r="K23" t="n">
         <v>263.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>290.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/average_nominal_salary_by_region_in_thousand_tenge.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/average_nominal_salary_by_region_in_thousand_tenge.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,16 @@
           <t>1 кв</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2 кв</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3 кв</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +538,12 @@
       </c>
       <c r="K3" t="n">
         <v>345.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>350.5</v>
       </c>
     </row>
     <row r="4">
@@ -554,6 +570,12 @@
       <c r="K4" t="n">
         <v>285.1</v>
       </c>
+      <c r="L4" t="n">
+        <v>303</v>
+      </c>
+      <c r="M4" t="n">
+        <v>292.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -591,6 +613,12 @@
       <c r="K5" t="n">
         <v>277.5</v>
       </c>
+      <c r="L5" t="n">
+        <v>298</v>
+      </c>
+      <c r="M5" t="n">
+        <v>291.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -628,6 +656,12 @@
       <c r="K6" t="n">
         <v>301.3</v>
       </c>
+      <c r="L6" t="n">
+        <v>325</v>
+      </c>
+      <c r="M6" t="n">
+        <v>322.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -665,6 +699,12 @@
       <c r="K7" t="n">
         <v>277.5</v>
       </c>
+      <c r="L7" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>272.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -702,6 +742,12 @@
       <c r="K8" t="n">
         <v>620.4</v>
       </c>
+      <c r="L8" t="n">
+        <v>573.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>602.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -739,6 +785,12 @@
       <c r="K9" t="n">
         <v>296.1</v>
       </c>
+      <c r="L9" t="n">
+        <v>318</v>
+      </c>
+      <c r="M9" t="n">
+        <v>314.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -775,6 +827,12 @@
       </c>
       <c r="K10" t="n">
         <v>258.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>257.7</v>
       </c>
     </row>
     <row r="11">
@@ -801,6 +859,12 @@
       <c r="K11" t="n">
         <v>253.1</v>
       </c>
+      <c r="L11" t="n">
+        <v>274.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>259.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -838,6 +902,12 @@
       <c r="K12" t="n">
         <v>317.2</v>
       </c>
+      <c r="L12" t="n">
+        <v>343.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>329.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -875,6 +945,12 @@
       <c r="K13" t="n">
         <v>276.4</v>
       </c>
+      <c r="L13" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>296.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -912,6 +988,12 @@
       <c r="K14" t="n">
         <v>297.2</v>
       </c>
+      <c r="L14" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>303.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -949,6 +1031,12 @@
       <c r="K15" t="n">
         <v>512.3</v>
       </c>
+      <c r="L15" t="n">
+        <v>531.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>519.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -986,6 +1074,12 @@
       <c r="K16" t="n">
         <v>306</v>
       </c>
+      <c r="L16" t="n">
+        <v>325.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1023,6 +1117,12 @@
       <c r="K17" t="n">
         <v>242.8</v>
       </c>
+      <c r="L17" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>258.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1059,6 +1159,12 @@
       </c>
       <c r="K18" t="n">
         <v>263.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>299</v>
+      </c>
+      <c r="M18" t="n">
+        <v>248.9</v>
       </c>
     </row>
     <row r="19">
@@ -1085,6 +1191,12 @@
       <c r="K19" t="n">
         <v>452.2</v>
       </c>
+      <c r="L19" t="n">
+        <v>474.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>471.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1122,6 +1234,12 @@
       <c r="K20" t="n">
         <v>331.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>336</v>
+      </c>
+      <c r="M20" t="n">
+        <v>316.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1159,6 +1277,12 @@
       <c r="K21" t="n">
         <v>448.5</v>
       </c>
+      <c r="L21" t="n">
+        <v>467.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>449.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1196,6 +1320,12 @@
       <c r="K22" t="n">
         <v>396.1</v>
       </c>
+      <c r="L22" t="n">
+        <v>420.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1232,13 +1362,19 @@
       </c>
       <c r="K23" t="n">
         <v>263.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>290.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>266.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
